--- a/benchmarks/Benchmark.xlsx
+++ b/benchmarks/Benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F747C6-14B8-43C5-A325-9209D1F9541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423AB66-4203-4BF1-88E9-A209D843D831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="466">
   <si>
     <t>id</t>
   </si>
@@ -30,12 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>mention_id_CZI</t>
-  </si>
-  <si>
-    <t>group_id_CZI</t>
-  </si>
-  <si>
     <t>doi</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>ground_truth</t>
-  </si>
-  <si>
     <t>annotator</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>sklearn Python package</t>
   </si>
   <si>
-    <t>SM408239</t>
-  </si>
-  <si>
     <t>10.1016/j.patter.2021.100270</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Python package sklearn</t>
   </si>
   <si>
-    <t>SM197527</t>
-  </si>
-  <si>
     <t>10.1186/s12916-020-01748-x</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>Python sklearn library</t>
   </si>
   <si>
-    <t>SM626576</t>
-  </si>
-  <si>
     <t>10.1155/2020/1384749</t>
   </si>
   <si>
@@ -375,9 +357,6 @@
     <t>Python sklearn</t>
   </si>
   <si>
-    <t>SM423614</t>
-  </si>
-  <si>
     <t>10.3390/pharmaceutics13071026</t>
   </si>
   <si>
@@ -438,9 +417,6 @@
     <t>sklearn Python</t>
   </si>
   <si>
-    <t>SM88722</t>
-  </si>
-  <si>
     <t>10.1186/s12859-020-03582-7</t>
   </si>
   <si>
@@ -618,9 +594,6 @@
     <t>panda</t>
   </si>
   <si>
-    <t>SM586756</t>
-  </si>
-  <si>
     <t>10.1371/journal.pone.0228422</t>
   </si>
   <si>
@@ -792,12 +765,6 @@
     <t>PANDA (Pipeline for Analyzing braiN Diffusion imAges)</t>
   </si>
   <si>
-    <t>SM696942</t>
-  </si>
-  <si>
-    <t>SM27626</t>
-  </si>
-  <si>
     <t>10.3389/fncom.2021.659838</t>
   </si>
   <si>
@@ -900,9 +867,6 @@
     <t>activity</t>
   </si>
   <si>
-    <t>SM47378</t>
-  </si>
-  <si>
     <t>10.3390/ani9121071</t>
   </si>
   <si>
@@ -987,12 +951,6 @@
     <t>sets</t>
   </si>
   <si>
-    <t>SM104201</t>
-  </si>
-  <si>
-    <t>SM161530</t>
-  </si>
-  <si>
     <t>10.1186/s12859-018-2557-8</t>
   </si>
   <si>
@@ -1044,9 +1002,6 @@
     <t>set</t>
   </si>
   <si>
-    <t>SM431078</t>
-  </si>
-  <si>
     <t>10.1111/pbi.13205</t>
   </si>
   <si>
@@ -1110,9 +1065,6 @@
     <t>Sets</t>
   </si>
   <si>
-    <t>SM801412</t>
-  </si>
-  <si>
     <t>10.12688/hrbopenres.12895.2</t>
   </si>
   <si>
@@ -1131,12 +1083,6 @@
     <t>Rhino</t>
   </si>
   <si>
-    <t>SM98</t>
-  </si>
-  <si>
-    <t>SM177</t>
-  </si>
-  <si>
     <t>10.1186/s41205-017-0024-1</t>
   </si>
   <si>
@@ -1170,9 +1116,6 @@
     <t>rhino</t>
   </si>
   <si>
-    <t>SM900187</t>
-  </si>
-  <si>
     <t>10.1038/s41598-017-07644-4</t>
   </si>
   <si>
@@ -1272,9 +1215,6 @@
     <t>Rhinos</t>
   </si>
   <si>
-    <t>SM333360</t>
-  </si>
-  <si>
     <t>10.3390/ma13245609</t>
   </si>
   <si>
@@ -1293,9 +1233,6 @@
     <t>RHINOCEROS</t>
   </si>
   <si>
-    <t>SM179672</t>
-  </si>
-  <si>
     <t>10.1186/s12903-021-01450-1</t>
   </si>
   <si>
@@ -1327,15 +1264,6 @@
   </si>
   <si>
     <t>mention label as it appears in the original text</t>
-  </si>
-  <si>
-    <t>mention ID of the CZI dataset</t>
-  </si>
-  <si>
-    <t>mention ID of the group id the mention in row 3 belongs to. Mention ids may be the same as group ids</t>
-  </si>
-  <si>
-    <t>cluster id the name refers to. Annotated by the annotators. The cluster ids are integer numbers that group together mentions referring to the same software</t>
   </si>
   <si>
     <t>doi of the paper the mention name appears</t>
@@ -1759,9 +1687,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,24 +1908,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16" style="13" customWidth="1"/>
-    <col min="6" max="6" width="30.21875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="13"/>
+    <col min="3" max="3" width="16" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2008,21 +1934,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>464</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -2031,3577 +1957,2746 @@
       <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>101</v>
+      <c r="E21" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12">
-        <v>1</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>101</v>
+      <c r="E22" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
-        <v>1</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" s="12">
-        <v>1</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="12">
-        <v>1</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="12">
-        <v>1</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="12">
-        <v>1</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="12">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="12">
-        <v>1</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+      <c r="H28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>151</v>
+      <c r="E29" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="12">
-        <v>1</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="12">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+        <v>146</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>157</v>
+      <c r="E31" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="12">
-        <v>1</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="12">
-        <v>1</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="12">
-        <v>1</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="12">
-        <v>1</v>
-      </c>
-      <c r="M34" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1">
+        <v>152</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L35" s="12">
-        <v>2</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="12">
-        <v>2</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L37" s="12">
-        <v>2</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1">
+        <v>172</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L38" s="12">
-        <v>2</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1">
+        <v>177</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L39" s="12">
-        <v>2</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
+        <v>182</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" s="12">
-        <v>2</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1">
+        <v>187</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L41" s="12">
-        <v>2</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1">
+        <v>193</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L42" s="12">
-        <v>2</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1">
+      <c r="G42" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="12">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L43" s="12">
-        <v>2</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L44" s="12">
-        <v>2</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1">
+        <v>208</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L45" s="12">
-        <v>2</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1">
+        <v>213</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="12">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L46" s="12">
-        <v>2</v>
-      </c>
-      <c r="M46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1">
+        <v>218</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="12">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>145</v>
+        <v>223</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L47" s="12">
-        <v>2</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L48" s="12">
-        <v>2</v>
-      </c>
-      <c r="M48" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+        <v>227</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="E49" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>238</v>
-      </c>
       <c r="F49" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="G49" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L49" s="12">
-        <v>2</v>
-      </c>
-      <c r="M49" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="J49" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>238</v>
-      </c>
       <c r="F50" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="G50" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L50" s="12">
-        <v>2</v>
-      </c>
-      <c r="M50" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="J50" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L51" s="12">
-        <v>2</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+        <v>238</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L52" s="12">
-        <v>2</v>
-      </c>
-      <c r="M52" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+        <v>244</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L53" s="12">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="12">
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L54" s="12">
-        <v>2</v>
-      </c>
-      <c r="M54" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1">
+        <v>193</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="12">
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="F55" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L55" s="12">
-        <v>2</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1">
+      <c r="G55" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="12">
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="L56" s="12">
-        <v>2</v>
-      </c>
-      <c r="M56" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="12">
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L57" s="12">
-        <v>3</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+        <v>208</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="12">
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L58" s="12">
-        <v>4</v>
-      </c>
-      <c r="M58" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
+        <v>213</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="12">
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I59" s="12" t="s">
+      <c r="H59" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="J59" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L59" s="12">
-        <v>4</v>
-      </c>
-      <c r="M59" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1">
+      <c r="J59" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>269</v>
+        <v>259</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L60" s="12">
-        <v>4</v>
-      </c>
-      <c r="M60" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1">
+        <v>261</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="12">
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="D61" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>274</v>
+        <v>264</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L61" s="12">
-        <v>4</v>
-      </c>
-      <c r="M61" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1">
+        <v>266</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="12">
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>280</v>
+        <v>270</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L62" s="12">
-        <v>4</v>
-      </c>
-      <c r="M62" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1">
+        <v>272</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>285</v>
+        <v>275</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L63" s="12">
-        <v>4</v>
-      </c>
-      <c r="M63" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1">
+        <v>277</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="12">
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L64" s="12">
-        <v>4</v>
-      </c>
-      <c r="M64" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+        <v>277</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="12">
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L65" s="12">
-        <v>5</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1">
+        <v>284</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="12">
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="G66" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L66" s="12">
-        <v>5</v>
-      </c>
-      <c r="M66" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+      <c r="H66" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="12">
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L67" s="12">
-        <v>5</v>
-      </c>
-      <c r="M67" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1">
+        <v>296</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="12">
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>300</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L68" s="12">
-        <v>5</v>
-      </c>
-      <c r="M68" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1">
+        <v>301</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="12">
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L69" s="12">
-        <v>6</v>
-      </c>
-      <c r="M69" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1">
+        <v>306</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="12">
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>323</v>
+        <v>310</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="L70" s="12">
-        <v>7</v>
-      </c>
-      <c r="M70" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1">
+        <v>312</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="12">
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>317</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L71" s="12">
-        <v>8</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1">
+        <v>318</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="12">
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C72" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="F72" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="L72" s="12">
-        <v>9</v>
-      </c>
-      <c r="M72" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1">
+        <v>323</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="12">
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>341</v>
+        <v>327</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="L73" s="12">
-        <v>10</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1">
+        <v>329</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="12">
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>346</v>
+        <v>332</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L74" s="12">
-        <v>11</v>
-      </c>
-      <c r="M74" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="12">
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="G75" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="L75" s="12">
-        <v>12</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1">
+      <c r="J75" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="12">
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>356</v>
+        <v>342</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="L76" s="12">
-        <v>13</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="1">
+        <v>344</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="12">
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>363</v>
+        <v>348</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>349</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="L77" s="12">
-        <v>14</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="1">
+        <v>350</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="12">
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>371</v>
+        <v>354</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L78" s="12">
-        <v>15</v>
-      </c>
-      <c r="M78" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="12">
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>371</v>
+        <v>358</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L79" s="12">
-        <v>15</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="12">
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L80" s="12">
-        <v>15</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="12">
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L81" s="12">
-        <v>15</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="12">
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>371</v>
+        <v>361</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H82" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I82" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L82" s="12">
-        <v>15</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="12">
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="L83" s="12">
-        <v>15</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="12">
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>383</v>
+        <v>365</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="L84" s="12">
-        <v>15</v>
-      </c>
-      <c r="M84" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1">
+        <v>367</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="12">
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>390</v>
+        <v>372</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="L85" s="12">
-        <v>15</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1">
+        <v>374</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="12">
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>395</v>
+        <v>377</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="L86" s="12">
-        <v>15</v>
-      </c>
-      <c r="M86" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1">
+        <v>356</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="12">
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>398</v>
+        <v>380</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="L87" s="12">
-        <v>15</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1">
+        <v>384</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="12">
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G88" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="L88" s="12">
-        <v>15</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1">
+      <c r="J88" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="12">
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>409</v>
+        <v>391</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>412</v>
+        <v>393</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="L89" s="12">
-        <v>15</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1">
+        <v>395</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="12">
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>417</v>
+        <v>398</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>399</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="L90" s="12">
-        <v>15</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1">
+        <v>400</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="12">
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>424</v>
+        <v>404</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>405</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="L91" s="12">
-        <v>15</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1">
+        <v>406</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="12">
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>429</v>
+        <v>409</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="I92" s="12"/>
-      <c r="L92" s="12">
-        <v>15</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1">
+        <v>411</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="J92" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="12">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L92">
-    <sortCondition ref="L2:L92"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="G22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J61" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G63" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K65" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G66" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G68" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K68" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G69" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K69" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G70" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G71" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G72" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G73" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G74" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G75" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G76" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G77" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="G78" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G79" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G80" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G81" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G82" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G83" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="G84" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="G85" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="G86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G87" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G88" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G89" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="G90" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="G91" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G92" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="J3:J21" r:id="rId99" display="http://www.scikit-learn.org" xr:uid="{95C464CC-BF14-4E22-94D2-7ABDF80F17E3}"/>
-    <hyperlink ref="J22" r:id="rId100" xr:uid="{2A72C9BC-D30C-42A7-8312-DD6E82A954B2}"/>
-    <hyperlink ref="J23:J34" r:id="rId101" display="http://www.scikit-learn.org" xr:uid="{CDA35A53-8DB8-4BD7-B468-FC1BE432BDB1}"/>
-    <hyperlink ref="J35" r:id="rId102" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
-    <hyperlink ref="J36:J50" r:id="rId103" display="http://pandas.pydata.org/" xr:uid="{4126AE99-2007-408C-8FD1-EBC116539BDF}"/>
-    <hyperlink ref="J52:J56" r:id="rId104" display="http://pandas.pydata.org/" xr:uid="{8A5AA2D1-10AF-4BB1-97F5-ECD0A7669DBE}"/>
-    <hyperlink ref="J58" r:id="rId105" xr:uid="{1AE6BB3C-3C0D-4C3D-84CF-5FF277D60879}"/>
-    <hyperlink ref="J59:J60" r:id="rId106" display="www.nitrc.org/projects/panda" xr:uid="{138EF4C2-E0B1-4190-8798-30F413B2BC8D}"/>
-    <hyperlink ref="J62:J64" r:id="rId107" display="www.nitrc.org/projects/panda" xr:uid="{FA195C72-BC01-45A9-BA6A-3C43056D193F}"/>
-    <hyperlink ref="J65" r:id="rId108" xr:uid="{3011F4B5-892E-4D8D-AE78-6D19F022F329}"/>
-    <hyperlink ref="J66:J68" r:id="rId109" display="https://cran.r-project.org/web/packages/activity/" xr:uid="{FBB07000-5317-4BBB-8914-C7135EAF0576}"/>
-    <hyperlink ref="J69" r:id="rId110" xr:uid="{7E55440F-85A8-40A1-89F1-A6E40AD0F257}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H61" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E63" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I65" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E66" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E68" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I68" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E69" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I69" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E70" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E71" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E72" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E73" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E74" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E75" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E76" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E77" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E78" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E79" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E80" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E81" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E82" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E83" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E84" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E85" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E87" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E88" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E89" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E90" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E91" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E92" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H3:H21" r:id="rId99" display="http://www.scikit-learn.org" xr:uid="{95C464CC-BF14-4E22-94D2-7ABDF80F17E3}"/>
+    <hyperlink ref="H22" r:id="rId100" xr:uid="{2A72C9BC-D30C-42A7-8312-DD6E82A954B2}"/>
+    <hyperlink ref="H23:H34" r:id="rId101" display="http://www.scikit-learn.org" xr:uid="{CDA35A53-8DB8-4BD7-B468-FC1BE432BDB1}"/>
+    <hyperlink ref="H35" r:id="rId102" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
+    <hyperlink ref="H36:H50" r:id="rId103" display="http://pandas.pydata.org/" xr:uid="{4126AE99-2007-408C-8FD1-EBC116539BDF}"/>
+    <hyperlink ref="H52:H56" r:id="rId104" display="http://pandas.pydata.org/" xr:uid="{8A5AA2D1-10AF-4BB1-97F5-ECD0A7669DBE}"/>
+    <hyperlink ref="H58" r:id="rId105" xr:uid="{1AE6BB3C-3C0D-4C3D-84CF-5FF277D60879}"/>
+    <hyperlink ref="H59:H60" r:id="rId106" display="www.nitrc.org/projects/panda" xr:uid="{138EF4C2-E0B1-4190-8798-30F413B2BC8D}"/>
+    <hyperlink ref="H62:H64" r:id="rId107" display="www.nitrc.org/projects/panda" xr:uid="{FA195C72-BC01-45A9-BA6A-3C43056D193F}"/>
+    <hyperlink ref="H65" r:id="rId108" xr:uid="{3011F4B5-892E-4D8D-AE78-6D19F022F329}"/>
+    <hyperlink ref="H66:H68" r:id="rId109" display="https://cran.r-project.org/web/packages/activity/" xr:uid="{FBB07000-5317-4BBB-8914-C7135EAF0576}"/>
+    <hyperlink ref="H69" r:id="rId110" xr:uid="{7E55440F-85A8-40A1-89F1-A6E40AD0F257}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5612,9 +4707,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -5623,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5631,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5639,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5647,79 +4744,55 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>419</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5743,22 +4816,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5768,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5776,19 +4849,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5798,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5806,19 +4879,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5829,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5837,31 +4910,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="9">
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5869,19 +4942,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5892,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5900,19 +4973,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5923,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5931,17 +5004,17 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5952,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5960,17 +5033,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5981,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6019,11 +5092,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="10" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6036,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6044,11 +5117,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="10" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6061,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6069,11 +5142,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6086,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6094,11 +5167,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -6108,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6116,11 +5189,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6133,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6141,11 +5214,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6158,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6166,11 +5239,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6183,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6191,11 +5264,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6208,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6216,11 +5289,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6233,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -6241,11 +5314,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6258,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6266,11 +5339,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -6283,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6291,11 +5364,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -6308,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6316,16 +5389,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6335,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6343,11 +5416,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6360,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -6368,11 +5441,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6385,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6393,11 +5466,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6410,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6418,11 +5491,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6435,7 +5508,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -6443,11 +5516,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6460,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -6468,11 +5541,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -6485,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -6493,11 +5566,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -6510,7 +5583,7 @@
         <v>2</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -6518,11 +5591,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -6535,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -6543,11 +5616,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -6560,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -6568,11 +5641,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6585,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -6593,32 +5666,32 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="10" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="5" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="8">
         <v>3</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -6626,11 +5699,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6643,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -6651,11 +5724,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="10" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -6668,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -6676,11 +5749,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6693,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -6701,11 +5774,11 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6718,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -6726,11 +5799,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="10" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6743,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -6751,11 +5824,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -6768,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -6776,11 +5849,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -6793,7 +5866,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -6801,11 +5874,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -6818,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -6826,28 +5899,28 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>

--- a/benchmarks/Benchmark.xlsx
+++ b/benchmarks/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423AB66-4203-4BF1-88E9-A209D843D831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5982E-6398-41C2-9DAB-FCF82C370FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,10 +1908,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4578,11 +4578,6 @@
       <c r="G92" s="12"/>
       <c r="J92" s="12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A93" s="12">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks/Benchmark.xlsx
+++ b/benchmarks/Benchmark.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5982E-6398-41C2-9DAB-FCF82C370FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F881771-5E6A-4C5D-B465-A325026F34DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="467">
   <si>
     <t>id</t>
   </si>
@@ -744,9 +744,6 @@
     <t>DNA,Crystallography,Electron density,Polymorphism (computer science)</t>
   </si>
   <si>
-    <t>http://pandas.pydata.org/</t>
-  </si>
-  <si>
     <t>10.1186/s40478-018-0574-5</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
   </si>
   <si>
     <t>Insula,Gait,Medicine,Supplementary motor area,Berg Balance Scale,Physical medicine and rehabilitation,Parkinson's disease,Superior frontal gyrus,Fractional anisotropy</t>
-  </si>
-  <si>
-    <t>www.nitrc.org/projects/panda</t>
   </si>
   <si>
     <t>10.1186/s13195-018-0413-8</t>
@@ -1547,12 +1541,21 @@
   <si>
     <t>Is the ground truth 2 or 3?</t>
   </si>
+  <si>
+    <t>https://github.com/scikit-learn/scikit-learn</t>
+  </si>
+  <si>
+    <t>https://github.com/pandas-dev/pandas</t>
+  </si>
+  <si>
+    <t>https://github.com/ZaixuCui/PANDA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1635,6 +1638,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1653,10 +1663,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1690,8 +1701,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1910,8 +1923,8 @@
   </sheetPr>
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1934,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>4</v>
@@ -1980,8 +1993,8 @@
       <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>18</v>
+      <c r="H2" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
@@ -2010,8 +2023,8 @@
       <c r="G3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>18</v>
+      <c r="H3" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -2040,8 +2053,8 @@
       <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>18</v>
+      <c r="H4" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -2070,8 +2083,8 @@
       <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>18</v>
+      <c r="H5" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -2100,8 +2113,8 @@
       <c r="G6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>18</v>
+      <c r="H6" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
@@ -2130,8 +2143,8 @@
       <c r="G7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>18</v>
+      <c r="H7" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
@@ -2160,8 +2173,8 @@
       <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>18</v>
+      <c r="H8" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
@@ -2190,8 +2203,8 @@
       <c r="G9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>18</v>
+      <c r="H9" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -2220,8 +2233,8 @@
       <c r="G10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>18</v>
+      <c r="H10" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
@@ -2250,8 +2263,8 @@
       <c r="G11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>18</v>
+      <c r="H11" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
@@ -2280,8 +2293,8 @@
       <c r="G12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>18</v>
+      <c r="H12" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
@@ -2310,8 +2323,8 @@
       <c r="G13" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>18</v>
+      <c r="H13" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
@@ -2340,8 +2353,8 @@
       <c r="G14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>18</v>
+      <c r="H14" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
@@ -2370,8 +2383,8 @@
       <c r="G15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>18</v>
+      <c r="H15" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
@@ -2400,8 +2413,8 @@
       <c r="G16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>18</v>
+      <c r="H16" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
@@ -2430,8 +2443,8 @@
       <c r="G17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>18</v>
+      <c r="H17" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="s">
@@ -2460,8 +2473,8 @@
       <c r="G18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>18</v>
+      <c r="H18" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
@@ -2490,8 +2503,8 @@
       <c r="G19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>18</v>
+      <c r="H19" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
@@ -2520,8 +2533,8 @@
       <c r="G20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>18</v>
+      <c r="H20" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
@@ -2550,8 +2563,8 @@
       <c r="G21" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>18</v>
+      <c r="H21" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="s">
@@ -2580,8 +2593,8 @@
       <c r="G22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>18</v>
+      <c r="H22" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
@@ -2610,8 +2623,8 @@
       <c r="G23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>18</v>
+      <c r="H23" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>123</v>
@@ -2642,8 +2655,8 @@
       <c r="G24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>18</v>
+      <c r="H24" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>19</v>
@@ -2671,8 +2684,8 @@
       <c r="G25" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>18</v>
+      <c r="H25" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>19</v>
@@ -2700,8 +2713,8 @@
       <c r="G26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>18</v>
+      <c r="H26" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>19</v>
@@ -2729,8 +2742,8 @@
       <c r="G27" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>18</v>
+      <c r="H27" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>19</v>
@@ -2758,8 +2771,8 @@
       <c r="G28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>18</v>
+      <c r="H28" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>19</v>
@@ -2787,8 +2800,8 @@
       <c r="G29" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>18</v>
+      <c r="H29" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>19</v>
@@ -2816,8 +2829,8 @@
       <c r="G30" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>18</v>
+      <c r="H30" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>19</v>
@@ -2845,8 +2858,8 @@
       <c r="G31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>18</v>
+      <c r="H31" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>19</v>
@@ -2874,8 +2887,8 @@
       <c r="G32" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>18</v>
+      <c r="H32" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>19</v>
@@ -2903,8 +2916,8 @@
       <c r="G33" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>18</v>
+      <c r="H33" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>19</v>
@@ -2932,8 +2945,8 @@
       <c r="G34" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>18</v>
+      <c r="H34" s="15" t="s">
+        <v>464</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>19</v>
@@ -2961,8 +2974,8 @@
       <c r="G35" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>240</v>
+      <c r="H35" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>19</v>
@@ -2990,8 +3003,8 @@
       <c r="G36" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>240</v>
+      <c r="H36" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>19</v>
@@ -3019,8 +3032,8 @@
       <c r="G37" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>240</v>
+      <c r="H37" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>19</v>
@@ -3048,8 +3061,8 @@
       <c r="G38" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>240</v>
+      <c r="H38" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>19</v>
@@ -3077,8 +3090,8 @@
       <c r="G39" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>240</v>
+      <c r="H39" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J39" s="12" t="s">
         <v>19</v>
@@ -3106,8 +3119,8 @@
       <c r="G40" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>240</v>
+      <c r="H40" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>19</v>
@@ -3135,8 +3148,8 @@
       <c r="G41" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>240</v>
+      <c r="H41" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>19</v>
@@ -3164,8 +3177,8 @@
       <c r="G42" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="H42" s="14" t="s">
-        <v>240</v>
+      <c r="H42" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>19</v>
@@ -3193,8 +3206,8 @@
       <c r="G43" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>240</v>
+      <c r="H43" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>19</v>
@@ -3222,8 +3235,8 @@
       <c r="G44" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="14" t="s">
-        <v>240</v>
+      <c r="H44" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>19</v>
@@ -3251,8 +3264,8 @@
       <c r="G45" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>240</v>
+      <c r="H45" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>19</v>
@@ -3280,8 +3293,8 @@
       <c r="G46" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="H46" s="14" t="s">
-        <v>240</v>
+      <c r="H46" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>19</v>
@@ -3312,8 +3325,8 @@
       <c r="G47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>240</v>
+      <c r="H47" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>19</v>
@@ -3341,8 +3354,8 @@
       <c r="G48" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>240</v>
+      <c r="H48" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>19</v>
@@ -3370,8 +3383,8 @@
       <c r="G49" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="14" t="s">
-        <v>240</v>
+      <c r="H49" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>19</v>
@@ -3399,8 +3412,8 @@
       <c r="G50" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>240</v>
+      <c r="H50" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J50" s="12" t="s">
         <v>19</v>
@@ -3428,8 +3441,8 @@
       <c r="G51" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H51" s="14" t="s">
-        <v>240</v>
+      <c r="H51" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>19</v>
@@ -3443,22 +3456,22 @@
         <v>221</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="E52" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="G52" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>240</v>
+      <c r="H52" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>19</v>
@@ -3469,25 +3482,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="E53" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="G53" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>240</v>
+      <c r="H53" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>19</v>
@@ -3515,8 +3528,8 @@
       <c r="G54" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>240</v>
+      <c r="H54" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>19</v>
@@ -3544,8 +3557,8 @@
       <c r="G55" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>240</v>
+      <c r="H55" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>19</v>
@@ -3573,8 +3586,8 @@
       <c r="G56" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H56" s="14" t="s">
-        <v>240</v>
+      <c r="H56" s="15" t="s">
+        <v>465</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>19</v>
@@ -3606,7 +3619,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
@@ -3631,8 +3644,8 @@
       <c r="G58" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>268</v>
+      <c r="H58" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>19</v>
@@ -3643,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="E59" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="F59" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="G59" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>268</v>
+      <c r="H59" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>19</v>
@@ -3672,25 +3685,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="E60" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="F60" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="G60" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G60" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>268</v>
+      <c r="H60" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>19</v>
@@ -3701,25 +3714,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="E61" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="F61" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="G61" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>268</v>
+      <c r="H61" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>19</v>
@@ -3730,25 +3743,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="F62" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="G62" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>268</v>
+      <c r="H62" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>19</v>
@@ -3759,25 +3772,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C63" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E63" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="F63" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="G63" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>268</v>
+      <c r="H63" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J63" s="12" t="s">
         <v>19</v>
@@ -3788,25 +3801,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="F64" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>268</v>
+      <c r="H64" s="15" t="s">
+        <v>466</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>19</v>
@@ -3817,34 +3830,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="E65" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="F65" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="G65" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="H65" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="I65" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1">
@@ -3852,28 +3865,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C66" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="F66" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="G66" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>292</v>
-      </c>
       <c r="H66" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J66" s="12" t="s">
         <v>19</v>
@@ -3884,25 +3897,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C67" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="F67" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="G67" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="H67" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J67" s="12" t="s">
         <v>19</v>
@@ -3916,28 +3929,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C68" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="F68" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="G68" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>302</v>
-      </c>
       <c r="H68" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J68" s="12" t="s">
         <v>19</v>
@@ -3948,28 +3961,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C69" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="F69" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="G69" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>307</v>
-      </c>
       <c r="H69" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J69" s="12" t="s">
         <v>19</v>
@@ -3980,22 +3993,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="E70" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="F70" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="G70" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="J70" s="12" t="s">
         <v>19</v>
@@ -4006,22 +4019,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="E71" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="F71" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="G71" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="J71" s="12" t="s">
         <v>19</v>
@@ -4032,22 +4045,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C72" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="F72" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="G72" s="12" t="s">
         <v>322</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>324</v>
       </c>
       <c r="J72" s="12" t="s">
         <v>19</v>
@@ -4058,22 +4071,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="E73" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="F73" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="G73" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="J73" s="12" t="s">
         <v>19</v>
@@ -4084,22 +4097,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C74" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="F74" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="G74" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="J74" s="12" t="s">
         <v>19</v>
@@ -4110,22 +4123,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C75" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="F75" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="G75" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="J75" s="12" t="s">
         <v>19</v>
@@ -4136,22 +4149,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C76" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="F76" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="G76" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>345</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>19</v>
@@ -4162,22 +4175,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="E77" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="F77" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="G77" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="J77" s="12" t="s">
         <v>19</v>
@@ -4188,22 +4201,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="E78" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="F78" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="G78" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J78" s="12" t="s">
         <v>19</v>
@@ -4214,22 +4227,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C79" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="F79" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J79" s="12" t="s">
         <v>19</v>
@@ -4240,22 +4253,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C80" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D80" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="E80" s="14" t="s">
+      <c r="F80" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G80" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J80" s="12" t="s">
         <v>19</v>
@@ -4266,22 +4279,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C81" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D81" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="F81" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G81" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J81" s="12" t="s">
         <v>19</v>
@@ -4292,22 +4305,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C82" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E82" s="14" t="s">
+      <c r="F82" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J82" s="12" t="s">
         <v>19</v>
@@ -4318,22 +4331,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C83" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="F83" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G83" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="J83" s="12" t="s">
         <v>19</v>
@@ -4344,28 +4357,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="E84" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="F84" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="G84" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="J84" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1">
@@ -4373,22 +4386,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D85" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="E85" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="F85" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="G85" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="J85" s="12" t="s">
         <v>19</v>
@@ -4399,22 +4412,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G86" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="J86" s="12" t="s">
         <v>19</v>
@@ -4425,25 +4438,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C87" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="F87" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="G87" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="I87" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="J87" s="12" t="s">
         <v>19</v>
@@ -4454,22 +4467,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="F88" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="G88" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="J88" s="12" t="s">
         <v>19</v>
@@ -4480,25 +4493,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="F89" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="G89" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="I89" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="J89" s="12" t="s">
         <v>19</v>
@@ -4509,22 +4522,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="E90" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="F90" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="G90" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="J90" s="12" t="s">
         <v>19</v>
@@ -4535,22 +4548,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D91" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="E91" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="F91" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="G91" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="J91" s="12" t="s">
         <v>19</v>
@@ -4561,19 +4574,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C92" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E92" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="F92" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="G92" s="12"/>
       <c r="J92" s="12" t="s">
@@ -4633,65 +4646,59 @@
     <hyperlink ref="E49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="E50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="E51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E58" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E60" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E61" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H61" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E63" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I65" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E66" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I66" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E67" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E68" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I68" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E69" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I69" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E70" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E71" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E72" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E73" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E74" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E75" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E76" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E77" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E78" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E79" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E80" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E81" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E82" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E83" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E84" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E85" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E87" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E88" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E89" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E90" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E91" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E92" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="H3:H21" r:id="rId99" display="http://www.scikit-learn.org" xr:uid="{95C464CC-BF14-4E22-94D2-7ABDF80F17E3}"/>
-    <hyperlink ref="H22" r:id="rId100" xr:uid="{2A72C9BC-D30C-42A7-8312-DD6E82A954B2}"/>
-    <hyperlink ref="H23:H34" r:id="rId101" display="http://www.scikit-learn.org" xr:uid="{CDA35A53-8DB8-4BD7-B468-FC1BE432BDB1}"/>
-    <hyperlink ref="H35" r:id="rId102" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
-    <hyperlink ref="H36:H50" r:id="rId103" display="http://pandas.pydata.org/" xr:uid="{4126AE99-2007-408C-8FD1-EBC116539BDF}"/>
-    <hyperlink ref="H52:H56" r:id="rId104" display="http://pandas.pydata.org/" xr:uid="{8A5AA2D1-10AF-4BB1-97F5-ECD0A7669DBE}"/>
-    <hyperlink ref="H58" r:id="rId105" xr:uid="{1AE6BB3C-3C0D-4C3D-84CF-5FF277D60879}"/>
-    <hyperlink ref="H59:H60" r:id="rId106" display="www.nitrc.org/projects/panda" xr:uid="{138EF4C2-E0B1-4190-8798-30F413B2BC8D}"/>
-    <hyperlink ref="H62:H64" r:id="rId107" display="www.nitrc.org/projects/panda" xr:uid="{FA195C72-BC01-45A9-BA6A-3C43056D193F}"/>
-    <hyperlink ref="H65" r:id="rId108" xr:uid="{3011F4B5-892E-4D8D-AE78-6D19F022F329}"/>
-    <hyperlink ref="H66:H68" r:id="rId109" display="https://cran.r-project.org/web/packages/activity/" xr:uid="{FBB07000-5317-4BBB-8914-C7135EAF0576}"/>
-    <hyperlink ref="H69" r:id="rId110" xr:uid="{7E55440F-85A8-40A1-89F1-A6E40AD0F257}"/>
+    <hyperlink ref="E52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I65" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E66" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I66" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E67" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E68" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I68" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E69" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I69" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E70" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E71" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E72" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E73" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E74" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E75" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E76" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E77" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E78" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E79" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E80" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E81" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E82" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E83" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E84" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E85" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E86" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E87" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E88" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E89" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E90" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E91" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E92" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="H35" r:id="rId97" xr:uid="{8E3D3C07-A1DF-45BD-8AD4-75DDD366862A}"/>
+    <hyperlink ref="H58" r:id="rId98" xr:uid="{1AE6BB3C-3C0D-4C3D-84CF-5FF277D60879}"/>
+    <hyperlink ref="H65" r:id="rId99" xr:uid="{3011F4B5-892E-4D8D-AE78-6D19F022F329}"/>
+    <hyperlink ref="H66:H68" r:id="rId100" display="https://cran.r-project.org/web/packages/activity/" xr:uid="{FBB07000-5317-4BBB-8914-C7135EAF0576}"/>
+    <hyperlink ref="H69" r:id="rId101" xr:uid="{7E55440F-85A8-40A1-89F1-A6E40AD0F257}"/>
+    <hyperlink ref="H3:H34" r:id="rId102" display="https://github.com/scikit-learn/scikit-learn" xr:uid="{4176D8A1-CB25-4320-8B5A-67B31E594D81}"/>
+    <hyperlink ref="H36:H56" r:id="rId103" display="https://github.com/pandas-dev/pandas" xr:uid="{064F4E4D-0AD3-4E88-B64E-65EECC5FB73D}"/>
+    <hyperlink ref="H59:H64" r:id="rId104" display="https://github.com/ZaixuCui/PANDA" xr:uid="{A2CB303C-6B96-4817-83E4-41C22EA12383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4715,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4723,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4731,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4739,7 +4746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4747,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4755,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4763,15 +4770,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4779,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4787,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +4833,7 @@
         <v>144</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4880,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>137</v>
@@ -4911,13 +4918,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -4943,7 +4950,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>79</v>
@@ -4974,7 +4981,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>84</v>
@@ -5003,7 +5010,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>62</v>
@@ -5032,7 +5039,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>67</v>
@@ -5091,7 +5098,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5112,11 +5119,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5184,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10" t="s">
@@ -5209,7 +5216,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="10" t="s">
@@ -5259,11 +5266,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5284,11 +5291,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5309,11 +5316,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5334,11 +5341,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5359,11 +5366,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5393,7 +5400,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5436,7 +5443,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="10" t="s">
@@ -5461,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="10" t="s">
@@ -5486,7 +5493,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="10" t="s">
@@ -5511,7 +5518,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="10" t="s">
@@ -5536,7 +5543,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="10" t="s">
@@ -5561,7 +5568,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="10" t="s">
@@ -5586,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="10" t="s">
@@ -5611,7 +5618,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="10" t="s">
@@ -5636,7 +5643,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="10" t="s">
@@ -5661,25 +5668,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="8">
@@ -5698,7 +5705,7 @@
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -5719,11 +5726,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5748,7 +5755,7 @@
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5773,7 +5780,7 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5794,11 +5801,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
